--- a/LaPanthere/Modèle-audit-SEO.xlsx
+++ b/LaPanthere/Modèle-audit-SEO.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\livai\developpement\OpenClassRoom\LaPanthere\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40B6CAD-5661-426C-AA58-4631AB0F4C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A049FE9-4D08-4088-900B-CF3778A1C249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="34965" yWindow="2700" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Compte rendu Panthère" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Catégorie</t>
   </si>
@@ -74,33 +73,6 @@
  vers les liens</t>
   </si>
   <si>
-    <t>Loyer</t>
-  </si>
-  <si>
-    <t>Prêt</t>
-  </si>
-  <si>
-    <t>Taxe Foncière</t>
-  </si>
-  <si>
-    <t>Autres taxes</t>
-  </si>
-  <si>
-    <t>Impots</t>
-  </si>
-  <si>
-    <t>A rembourser</t>
-  </si>
-  <si>
-    <t>Délacaration revenue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERI </t>
-  </si>
-  <si>
-    <t>Compte épargné</t>
-  </si>
-  <si>
     <t>Script js au début</t>
   </si>
   <si>
@@ -136,24 +108,47 @@
   <si>
     <t>Modification de :   
  &lt;meta name="description" content=""&gt;</t>
+  </si>
+  <si>
+    <t>img scr mal indenté</t>
+  </si>
+  <si>
+    <t>Pas de titre</t>
+  </si>
+  <si>
+    <t>mauvais chelmin d'accés</t>
+  </si>
+  <si>
+    <t>manque sémantique</t>
+  </si>
+  <si>
+    <t>Modification du format de ficher pourles images</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>&lt;meta&gt;</t>
+  </si>
+  <si>
+    <t>titres</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Ficher Javascript mal situé</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -164,14 +159,24 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Montserrat"/>
     </font>
   </fonts>
   <fills count="3">
@@ -188,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -203,28 +208,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,144 +553,223 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.26953125" customWidth="1"/>
-    <col min="3" max="3" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.26953125" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:26" ht="54" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:26" ht="54" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:26" ht="54" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:26" ht="72" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="F12" s="10"/>
     </row>
-    <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="E11" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="E12" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="4"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="4"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="4"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1573,74 +1760,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF8E112-4195-4B72-9DBE-9E39024C78AA}">
-  <dimension ref="A2:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>150000</v>
-      </c>
-      <c r="B3">
-        <v>600</v>
-      </c>
-      <c r="C3">
-        <v>600</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>